--- a/CDNS.xlsx
+++ b/CDNS.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219E0745-EFF5-4F0A-8C0C-FD3B712681ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDA9B20-3CCA-482F-8E92-0BA5A01FD728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13995" yWindow="885" windowWidth="14805" windowHeight="13200" xr2:uid="{3894AF94-BE21-442D-A877-D6ABCA1EFCA8}"/>
+    <workbookView xWindow="21100" yWindow="2430" windowWidth="16870" windowHeight="18580" xr2:uid="{3894AF94-BE21-442D-A877-D6ABCA1EFCA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>Price</t>
   </si>
@@ -55,9 +56,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q421</t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
@@ -134,13 +132,178 @@
   </si>
   <si>
     <t>Magma Design Automation</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>M&amp;S</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>OLTL</t>
+  </si>
+  <si>
+    <t>Custom IC Design</t>
+  </si>
+  <si>
+    <t>Digital IC Design and Signoff</t>
+  </si>
+  <si>
+    <t>Functional Verification including Emulation and Prototyping</t>
+  </si>
+  <si>
+    <t>System Design and Analysis</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Amortization of Debt Discount</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Gain on Investments</t>
+  </si>
+  <si>
+    <t>ABA</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -150,6 +313,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -176,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -184,6 +354,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,10 +385,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B64C658-A63D-FE8E-28B3-F877BEC75434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9809197" y="35719"/>
+          <a:ext cx="0" cy="9566585"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -242,7 +481,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -348,7 +587,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,7 +729,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,193 +739,1376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4446EC4-BE8F-4485-80D8-F5AF48D5C44B}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>186.55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>277.33600000000001</v>
+        <v>273.82</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>51737.030800000008</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>69276.459999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <v>1088.94</v>
+        <v>1058.9549999999999</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="2">
-        <v>347.58800000000002</v>
+        <f>349.732+998.935</f>
+        <v>1348.6669999999999</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>50995.678800000009</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>69566.171999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5FD243-ACC5-4DE3-8B7B-FD689A1E2988}">
+  <dimension ref="A1:T58"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O35" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="R51" sqref="R51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="3" max="14" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2">
+        <v>2022</v>
+      </c>
+      <c r="S2">
+        <v>2023</v>
+      </c>
+      <c r="T2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>845.88</v>
+      </c>
+      <c r="G3" s="5">
+        <v>963.74199999999996</v>
+      </c>
+      <c r="H3" s="5">
+        <v>922.79</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5">
+        <v>981.98699999999997</v>
+      </c>
+      <c r="K3" s="5">
+        <v>913.38499999999999</v>
+      </c>
+      <c r="L3" s="5">
+        <v>960.45699999999999</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="R3" s="2">
+        <v>3340.1970000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <v>3834.259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>53.997</v>
+      </c>
+      <c r="G4" s="5">
+        <v>57.948</v>
+      </c>
+      <c r="H4" s="5">
+        <v>53.789000000000001</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <v>86.635999999999996</v>
+      </c>
+      <c r="K4" s="5">
+        <v>95.718000000000004</v>
+      </c>
+      <c r="L4" s="5">
+        <v>100.224</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="R4" s="2">
+        <v>221.52099999999999</v>
+      </c>
+      <c r="S4" s="2">
+        <v>255.62700000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:J5" si="0">+F3+F4</f>
+        <v>899.87699999999995</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>1021.6899999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>976.57899999999995</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>1068.623</v>
+      </c>
+      <c r="K5" s="7">
+        <f>+K3+K4</f>
+        <v>1009.103</v>
+      </c>
+      <c r="L5" s="7">
+        <f>+L3+L4</f>
+        <v>1060.681</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="R5" s="6">
+        <f>+R3+R4</f>
+        <v>3561.7180000000003</v>
+      </c>
+      <c r="S5" s="6">
+        <f>+S3+S4</f>
+        <v>4089.886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <f>69.702+23.813</f>
+        <v>93.515000000000001</v>
+      </c>
+      <c r="G6" s="5">
+        <f>75.395+49.802</f>
+        <v>125.197</v>
+      </c>
+      <c r="H6" s="5">
+        <f>74.218+22.64</f>
+        <v>96.858000000000004</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
+        <f>71.491+32.639</f>
+        <v>104.13</v>
+      </c>
+      <c r="K6" s="5">
+        <f>75.395+49.802</f>
+        <v>125.197</v>
+      </c>
+      <c r="L6" s="5">
+        <f>94.363+44.907</f>
+        <v>139.26999999999998</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="R6" s="2">
+        <f>273.565+98.058</f>
+        <v>371.62299999999999</v>
+      </c>
+      <c r="S6" s="2">
+        <f>331.76+103.281</f>
+        <v>435.041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <f>+F5-F6</f>
+        <v>806.36199999999997</v>
+      </c>
+      <c r="G7" s="5">
+        <f>+G5-G6</f>
+        <v>896.49299999999994</v>
+      </c>
+      <c r="H7" s="5">
+        <f>+H5-H6</f>
+        <v>879.721</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <f>+J5-J6</f>
+        <v>964.49300000000005</v>
+      </c>
+      <c r="K7" s="5">
+        <f>+K5-K6</f>
+        <v>883.90599999999995</v>
+      </c>
+      <c r="L7" s="5">
+        <f>+L5-L6</f>
+        <v>921.41100000000006</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="R7" s="2">
+        <f>+R5-R6</f>
+        <v>3190.0950000000003</v>
+      </c>
+      <c r="S7" s="2">
+        <f>+S5-S6</f>
+        <v>3654.8449999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>171.81700000000001</v>
+      </c>
+      <c r="G8" s="5">
+        <v>166.666</v>
+      </c>
+      <c r="H8" s="5">
+        <v>167.07</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
+        <v>180.36799999999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>180.589</v>
+      </c>
+      <c r="L8" s="5">
+        <v>186.72499999999999</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="R8" s="2">
+        <v>604.22400000000005</v>
+      </c>
+      <c r="S8" s="2">
+        <v>690.31899999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>350.423</v>
+      </c>
+      <c r="G9" s="5">
+        <v>350.29500000000002</v>
+      </c>
+      <c r="H9" s="5">
+        <v>354.416</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
+        <v>367.44299999999998</v>
+      </c>
+      <c r="K9" s="5">
+        <v>378.95800000000003</v>
+      </c>
+      <c r="L9" s="5">
+        <v>370.74</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="R9" s="2">
+        <v>1251.5440000000001</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1441.796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>68.064999999999998</v>
+      </c>
+      <c r="G10" s="5">
+        <v>53.527000000000001</v>
+      </c>
+      <c r="H10" s="5">
+        <v>54.604999999999997</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <v>75.742000000000004</v>
+      </c>
+      <c r="K10" s="5">
+        <v>68.715999999999994</v>
+      </c>
+      <c r="L10" s="5">
+        <v>63.436</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="R10" s="2">
+        <v>242.11600000000001</v>
+      </c>
+      <c r="S10" s="2">
+        <v>242.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11:J11" si="1">SUM(F8:F10)</f>
+        <v>590.30500000000006</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>570.48800000000006</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>576.09100000000001</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="1"/>
+        <v>623.55299999999988</v>
+      </c>
+      <c r="K11" s="5">
+        <f>SUM(K8:K10)</f>
+        <v>628.26300000000003</v>
+      </c>
+      <c r="L11" s="5">
+        <f>SUM(L8:L10)</f>
+        <v>620.90100000000007</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="R11" s="2">
+        <f>+R10+R9+R8</f>
+        <v>2097.884</v>
+      </c>
+      <c r="S11" s="2">
+        <f>+S10+S9+S8</f>
+        <v>2374.5450000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:J12" si="2">+F7-F11</f>
+        <v>216.0569999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="2"/>
+        <v>326.00499999999988</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>303.63</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>340.94000000000017</v>
+      </c>
+      <c r="K12" s="5">
+        <f>+K7-K11</f>
+        <v>255.64299999999992</v>
+      </c>
+      <c r="L12" s="5">
+        <f>+L7-L11</f>
+        <v>300.51</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="R12" s="2">
+        <f>+R7-R11</f>
+        <v>1092.2110000000002</v>
+      </c>
+      <c r="S12" s="2">
+        <f>+S7-S11</f>
+        <v>1280.2999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <f>-9.082+8.49</f>
+        <v>-0.59200000000000053</v>
+      </c>
+      <c r="G13" s="5">
+        <f>-9.26+8.284</f>
+        <v>-0.97599999999999909</v>
+      </c>
+      <c r="H13" s="5">
+        <f>-8.877+7.973</f>
+        <v>-0.9040000000000008</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
+        <v>-8.9890000000000008</v>
+      </c>
+      <c r="K13" s="5">
+        <f>-8.692+68.779</f>
+        <v>60.086999999999996</v>
+      </c>
+      <c r="L13" s="5">
+        <f>-12.905+34.739</f>
+        <v>21.833999999999996</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="R13" s="2">
+        <f>-22.934-5.389</f>
+        <v>-28.323</v>
+      </c>
+      <c r="S13" s="2">
+        <f>-22.934-5.389</f>
+        <v>-28.323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <f>+F12+F13</f>
+        <v>215.46499999999989</v>
+      </c>
+      <c r="G14" s="5">
+        <f>+G12+G13</f>
+        <v>325.02899999999988</v>
+      </c>
+      <c r="H14" s="5">
+        <f>+H12+H13</f>
+        <v>302.726</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <f>+J12+J13</f>
+        <v>331.95100000000019</v>
+      </c>
+      <c r="K14" s="5">
+        <f>+K12+K13</f>
+        <v>315.7299999999999</v>
+      </c>
+      <c r="L14" s="5">
+        <f>+L12+L13</f>
+        <v>322.34399999999999</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="R14" s="2">
+        <f>+R12+R13</f>
+        <v>1063.8880000000001</v>
+      </c>
+      <c r="S14" s="2">
+        <f>+S12+S13</f>
+        <v>1251.9769999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>79.683000000000007</v>
+      </c>
+      <c r="H15" s="5">
+        <v>77.304000000000002</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
+        <v>38.162999999999997</v>
+      </c>
+      <c r="K15" s="5">
+        <v>62.4</v>
+      </c>
+      <c r="L15" s="5">
+        <v>86.19</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="R15" s="2">
+        <v>196.411</v>
+      </c>
+      <c r="S15" s="2">
+        <v>196.411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <f>+F14-F15</f>
+        <v>215.46499999999989</v>
+      </c>
+      <c r="G16" s="5">
+        <f>+G14-G15</f>
+        <v>245.34599999999989</v>
+      </c>
+      <c r="H16" s="5">
+        <f>+H14-H15</f>
+        <v>225.422</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
+        <f>+J14-J15</f>
+        <v>293.78800000000018</v>
+      </c>
+      <c r="K16" s="5">
+        <f>+K14-K15</f>
+        <v>253.3299999999999</v>
+      </c>
+      <c r="L16" s="5">
+        <f>+L14-L15</f>
+        <v>236.154</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="R16" s="2">
+        <f>+R14-R15</f>
+        <v>867.47700000000009</v>
+      </c>
+      <c r="S16" s="2">
+        <f>+S14-S15</f>
+        <v>1055.5659999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="8">
+        <f>+F16/F18</f>
+        <v>0.78925775741125315</v>
+      </c>
+      <c r="G17" s="8">
+        <f>+G16/G18</f>
+        <v>0.89871646471010536</v>
+      </c>
+      <c r="H17" s="8">
+        <f>+H16/H18</f>
+        <v>0.82573371038403498</v>
+      </c>
+      <c r="J17" s="8">
+        <f>+J16/J18</f>
+        <v>1.0784416652289313</v>
+      </c>
+      <c r="K17" s="8">
+        <f>+K16/K18</f>
+        <v>0.92610329599625618</v>
+      </c>
+      <c r="L17" s="8">
+        <f>+L16/L18</f>
+        <v>0.86338841766598429</v>
+      </c>
+      <c r="R17" s="1">
+        <f>+R16/R18</f>
+        <v>3.1543356447560278</v>
+      </c>
+      <c r="S17" s="1">
+        <f>+S16/S18</f>
+        <v>3.8382682874503185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>272.99700000000001</v>
+      </c>
+      <c r="G18" s="5">
+        <v>272.99599999999998</v>
+      </c>
+      <c r="H18" s="5">
+        <v>272.99599999999998</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
+        <v>272.41899999999998</v>
+      </c>
+      <c r="K18" s="5">
+        <v>273.54399999999998</v>
+      </c>
+      <c r="L18" s="5">
+        <v>273.52</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="R18" s="2">
+        <v>275.01100000000002</v>
+      </c>
+      <c r="S18" s="2">
+        <v>275.01100000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="S20" s="10">
+        <f>+S5/R5-1</f>
+        <v>0.14829023521794804</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S21" s="10"/>
+    </row>
+    <row r="23" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5">
+        <v>1012.418</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1058.9549999999999</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5">
+        <v>389.86500000000001</v>
+      </c>
+      <c r="L24" s="5">
+        <v>564.851</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5">
+        <v>185.78399999999999</v>
+      </c>
+      <c r="L25" s="5">
+        <v>171.50800000000001</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5">
+        <v>341.86500000000001</v>
+      </c>
+      <c r="L26" s="5">
+        <v>401.07400000000001</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5">
+        <v>433.01600000000002</v>
+      </c>
+      <c r="L27" s="5">
+        <v>449.42200000000003</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5">
+        <f>1575.107+334.644</f>
+        <v>1909.751</v>
+      </c>
+      <c r="L28" s="5">
+        <f>2417.747+664.038</f>
+        <v>3081.7849999999999</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="5">
+        <v>886.57600000000002</v>
+      </c>
+      <c r="L29" s="5">
+        <v>892.96299999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="5">
+        <v>562.85500000000002</v>
+      </c>
+      <c r="L30" s="5">
+        <v>605.18299999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="5">
+        <f>SUM(K23:K30)</f>
+        <v>5722.1299999999992</v>
+      </c>
+      <c r="L31" s="5">
+        <f>SUM(L23:L30)</f>
+        <v>7225.7409999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5">
+        <f>349.507+299.805</f>
+        <v>649.31200000000001</v>
+      </c>
+      <c r="L33" s="5">
+        <f>349.732+998.935</f>
+        <v>1348.6669999999999</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5">
+        <v>456.608</v>
+      </c>
+      <c r="L34" s="5">
+        <v>505.392</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5">
+        <f>659.628+87.003</f>
+        <v>746.63100000000009</v>
+      </c>
+      <c r="L35" s="5">
+        <f>678.598+88.823</f>
+        <v>767.42099999999994</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5">
+        <v>301.983</v>
+      </c>
+      <c r="L36" s="5">
+        <v>343.36900000000003</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5">
+        <v>3567.596</v>
+      </c>
+      <c r="L37" s="5">
+        <v>4260.8919999999998</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5">
+        <f>SUM(K33:K37)</f>
+        <v>5722.13</v>
+      </c>
+      <c r="L38" s="5">
+        <f>SUM(L33:L37)</f>
+        <v>7225.741</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="5">
+        <f>+K16</f>
+        <v>253.3299999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41" s="5">
+        <v>247.643</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" s="5">
+        <v>39.555999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44" s="5">
+        <v>88.129000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K45" s="5">
+        <v>-55.393999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" s="5">
+        <v>-1.5229999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K48" s="5">
+        <v>-0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K49" s="5">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K50" s="5">
+        <f>102.991-10.689-15.073-7.535-117.291-23.941+6.72</f>
+        <v>-64.818000000000012</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="K51" s="5">
+        <f>SUM(K41:K50)</f>
+        <v>253.232</v>
+      </c>
+      <c r="R51">
+        <v>1241.894</v>
+      </c>
+      <c r="S51">
+        <v>1349.1759999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>